--- a/EAGLE/Modified_Board_Shift_default_BOM.xlsx
+++ b/EAGLE/Modified_Board_Shift_default_BOM.xlsx
@@ -832,6 +832,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -920,18 +921,18 @@
   <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL33" activeCellId="0" sqref="AL33"/>
+      <selection pane="topLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="29.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="87.07"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="225.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.91"/>
@@ -941,9 +942,9 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="61.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="61.84"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="21" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="26.03"/>
@@ -951,7 +952,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="26" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="46.17"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="17.27"/>
@@ -1608,7 +1609,7 @@
       </c>
       <c r="AG17" s="0" t="str">
         <f aca="false">K17</f>
-        <v>311-330GRCT-ND </v>
+        <v>311-330GRCT-ND</v>
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">B17</f>
